--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value4027.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value4027.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.800636780262402</v>
+        <v>4.443521022796631</v>
       </c>
       <c r="B1">
-        <v>2.463485942381946</v>
+        <v>4.901392936706543</v>
       </c>
       <c r="C1">
-        <v>2.699619196879183</v>
+        <v>7.932816505432129</v>
       </c>
       <c r="D1">
-        <v>3.176900236960675</v>
+        <v>7.517411231994629</v>
       </c>
       <c r="E1">
-        <v>2.345173733197776</v>
+        <v>4.420957088470459</v>
       </c>
     </row>
   </sheetData>
